--- a/DPLKADM021-002 - Setup Provinsi - Batalkan Verifikasi/Report/Report/Default.xlsx
+++ b/DPLKADM021-002 - Setup Provinsi - Batalkan Verifikasi/Report/Report/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="ADM003-002" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM021-002" sheetId="2" r:id="rId2"/>
     <sheet name="TEMPORARY" sheetId="3" r:id="rId3"/>
     <sheet name="DPLKDBConfig" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -28,13 +28,7 @@
     <t>PROGRAM_PATH2</t>
   </si>
   <si>
-    <t>View Setup Provinsi</t>
-  </si>
-  <si>
     <t>Setup Wilayah</t>
-  </si>
-  <si>
-    <t>Testing Provinsi 2</t>
   </si>
   <si>
     <t>support</t>
@@ -72,14 +66,6 @@
     <t>C:\Program Files\HeidiSQL</t>
   </si>
   <si>
-    <t>Hapus Data Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Username : Putri,
-Password : bni1234/,
-Nama Provinsi : Testing Provinsi 2</t>
-  </si>
-  <si>
     <t>ORACLE_CONNECTION</t>
   </si>
   <si>
@@ -107,18 +93,9 @@
     <t>RUN</t>
   </si>
   <si>
-    <t>bni1234/</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>ugwadmin</t>
   </si>
   <si>
@@ -152,18 +129,9 @@
     <t>Normal - Administration - Setup</t>
   </si>
   <si>
-    <t>Ubah Setup Provinsi</t>
-  </si>
-  <si>
-    <t>Tambah Data Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
     <t>USERID</t>
   </si>
   <si>
-    <t>0 : Pending Register</t>
-  </si>
-  <si>
     <t>ORACLE_USER</t>
   </si>
   <si>
@@ -185,6 +153,9 @@
     <t>PROGRAM_PATH3</t>
   </si>
   <si>
+    <t>Batal Verifikasi - Setup Provinsi</t>
+  </si>
+  <si>
     <t>SIDEBAR_MENU</t>
   </si>
   <si>
@@ -194,6 +165,9 @@
     <t>NAMA_PROVINSI</t>
   </si>
   <si>
+    <t>JENIS_VERIFIKASI</t>
+  </si>
+  <si>
     <t>SUPPORT</t>
   </si>
   <si>
@@ -212,9 +186,6 @@
     <t>Automation Test Execution Document</t>
   </si>
   <si>
-    <t>View Detil Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
     <t>MYSQL_CONNECTION</t>
   </si>
   <si>
@@ -239,9 +210,6 @@
     <t>STATUS_REGISTER</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>MYSQL_KEAGENAN</t>
   </si>
   <si>
@@ -260,9 +228,6 @@
     <t>DEVELOPMENT_MANAGER</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
     <t>UGWADMIN</t>
   </si>
   <si>
@@ -311,9 +276,6 @@
     <t>pm2 logs main --lines 10000 | grep -B 3 -A 33 -i 'getPersonalInfo'</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
-  </si>
-  <si>
     <t>AUTHOR</t>
   </si>
   <si>
@@ -326,9 +288,10 @@
     <t>PROGRAM1</t>
   </si>
   <si>
-    <t xml:space="preserve">Username : Putri,
-Password : bni1234/,
-Keterangan Register : - </t>
+    <t>Username 1: 32074,
+Username 2: 30965,
+Password : bni1234,
+Nama Provinsi : Testing Provinsi 67</t>
   </si>
   <si>
     <t>Setup</t>
@@ -355,6 +318,9 @@
     <t>2021 R1</t>
   </si>
   <si>
+    <t>http://192.168.168.107/</t>
+  </si>
+  <si>
     <t>Automation Tester 1</t>
   </si>
   <si>
@@ -367,24 +333,12 @@
     <t>TC_ID</t>
   </si>
   <si>
-    <t>Hapus Setup Provinsi</t>
-  </si>
-  <si>
-    <t>Ubah Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Putri</t>
+    <t xml:space="preserve">Batal Verifikasi dapat dilakukan dengan baik </t>
   </si>
   <si>
     <t>Setup Provinsi</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ORACLE_UGWADMIN_PASSWORD</t>
   </si>
   <si>
@@ -400,6 +354,9 @@
     <t>PROGRAM_PATH1</t>
   </si>
   <si>
+    <t>Testing Provinsi 67</t>
+  </si>
+  <si>
     <t>KETERANGAN</t>
   </si>
   <si>
@@ -421,16 +378,12 @@
     <t>heidisql</t>
   </si>
   <si>
+    <t>DPLKADM021-002</t>
+  </si>
+  <si>
     <t>SCENARIO_DESC</t>
   </si>
   <si>
-    <t>Username : Putri,
-Password : bni1234/,
-Nama Provinsi : Testing Provinsi 2,
-Status Register : 0: Pending Register,
-Keterangan Register : testing</t>
-  </si>
-  <si>
     <t>SIDEBAR_SUBMENU</t>
   </si>
   <si>
@@ -464,6 +417,9 @@
     <t>EXPECTED_RESULT</t>
   </si>
   <si>
+    <t>VERIFIKASI</t>
+  </si>
+  <si>
     <t>GLIF_QUERY</t>
   </si>
   <si>
@@ -485,16 +441,10 @@
     <t>TEST_MANAGER</t>
   </si>
   <si>
-    <t>Tambah Setup Provinsi</t>
-  </si>
-  <si>
     <t>PREPERATION</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>U</t>
+    <t>bni1234</t>
   </si>
   <si>
     <t>ORACLE_UGWADMIN_USER</t>
@@ -525,9 +475,6 @@
   </si>
   <si>
     <t>COVER_SUBTITLE</t>
-  </si>
-  <si>
-    <t>DPLKADM003-002</t>
   </si>
   <si>
     <t>PASSWORD</t>
@@ -565,13 +512,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,6 +527,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -760,95 +707,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1154,7 +1094,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="10" customWidth="1"/>
@@ -1182,33 +1122,33 @@
     <col min="27" max="16384" width="9.078125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="15.1" customFormat="1">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>164</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1217,114 +1157,114 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="R1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="V1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="W1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="Y1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" s="16"/>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1337,356 +1277,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:V7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="18" customWidth="1"/>
-    <col min="5" max="6" width="32.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.078125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="12" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9.078125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="19" customWidth="1"/>
+    <col min="5" max="6" width="32.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.078125" style="19" customWidth="1"/>
+    <col min="22" max="22" width="12" style="19" customWidth="1"/>
+    <col min="23" max="16384" width="9.078125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="15.1" customFormat="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="60">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4">
+        <v>32074.309649999999</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" ht="68.8">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" ht="41.95">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="13"/>
-    </row>
-    <row r="4" ht="41.95">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="13"/>
-    </row>
-    <row r="5" ht="41.95">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" ht="15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="13"/>
-    </row>
-    <row r="7" ht="15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="13"/>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1721,322 +1462,322 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="57.140625" style="20" customWidth="1"/>
-    <col min="13" max="14" width="61" style="20" customWidth="1"/>
-    <col min="15" max="15" width="47" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="103.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="61" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="51" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="49.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="53.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="56.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="57.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="53.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="62.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="51.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="57.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="57.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="58.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.078125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="57.140625" style="13" customWidth="1"/>
+    <col min="13" max="14" width="61" style="13" customWidth="1"/>
+    <col min="15" max="15" width="47" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="61" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="53.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="57.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="53.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="58.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="62.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="51.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="57.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="57.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="58.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.078125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="15.1" customFormat="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" ht="210">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" ht="149.35">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="W2" s="1">
         <v>2020</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AR2" s="8">
         <v>1</v>
@@ -2044,8 +1785,8 @@
       <c r="AS2" s="8">
         <v>259</v>
       </c>
-      <c r="AT2" s="23" t="s">
-        <v>24</v>
+      <c r="AT2" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
